--- a/PythonResources/Data/Consumption/Sympheny/post_1560_coo.xlsx
+++ b/PythonResources/Data/Consumption/Sympheny/post_1560_coo.xlsx
@@ -815,7 +815,7 @@
         <v>59</v>
       </c>
       <c r="B59">
-        <v>0.7802899175942855</v>
+        <v>0.7802899175942853</v>
       </c>
     </row>
     <row r="60" spans="1:2">
@@ -1023,7 +1023,7 @@
         <v>85</v>
       </c>
       <c r="B85">
-        <v>3.397338094370048</v>
+        <v>3.397338094370047</v>
       </c>
     </row>
     <row r="86" spans="1:2">
@@ -1063,7 +1063,7 @@
         <v>90</v>
       </c>
       <c r="B90">
-        <v>0.4741156727943914</v>
+        <v>0.4741156727943913</v>
       </c>
     </row>
     <row r="91" spans="1:2">
@@ -2167,7 +2167,7 @@
         <v>228</v>
       </c>
       <c r="B228">
-        <v>3.320113875682783</v>
+        <v>3.320113875682782</v>
       </c>
     </row>
     <row r="229" spans="1:2">
@@ -2207,7 +2207,7 @@
         <v>233</v>
       </c>
       <c r="B233">
-        <v>8.371925904607723</v>
+        <v>8.371925904607721</v>
       </c>
     </row>
     <row r="234" spans="1:2">
@@ -2351,7 +2351,7 @@
         <v>251</v>
       </c>
       <c r="B251">
-        <v>1.790165825455096</v>
+        <v>1.790165825455095</v>
       </c>
     </row>
     <row r="252" spans="1:2">
@@ -2535,7 +2535,7 @@
         <v>274</v>
       </c>
       <c r="B274">
-        <v>2.996475527689059</v>
+        <v>2.996475527689058</v>
       </c>
     </row>
     <row r="275" spans="1:2">
@@ -2583,7 +2583,7 @@
         <v>280</v>
       </c>
       <c r="B280">
-        <v>24.07974228505145</v>
+        <v>24.07974228505144</v>
       </c>
     </row>
     <row r="281" spans="1:2">
@@ -3727,7 +3727,7 @@
         <v>423</v>
       </c>
       <c r="B423">
-        <v>0.4997037051799134</v>
+        <v>0.4997037051799133</v>
       </c>
     </row>
     <row r="424" spans="1:2">
@@ -5839,7 +5839,7 @@
         <v>687</v>
       </c>
       <c r="B687">
-        <v>0.944310055091494</v>
+        <v>0.9443100550914938</v>
       </c>
     </row>
     <row r="688" spans="1:2">
@@ -8895,7 +8895,7 @@
         <v>1069</v>
       </c>
       <c r="B1069">
-        <v>0.6813081049968026</v>
+        <v>0.6813081049968025</v>
       </c>
     </row>
     <row r="1070" spans="1:2">
@@ -11607,7 +11607,7 @@
         <v>1408</v>
       </c>
       <c r="B1408">
-        <v>17.49798220589882</v>
+        <v>17.49798220589881</v>
       </c>
     </row>
     <row r="1409" spans="1:2">
@@ -12903,7 +12903,7 @@
         <v>1570</v>
       </c>
       <c r="B1570">
-        <v>18.23449903315865</v>
+        <v>18.23449903315864</v>
       </c>
     </row>
     <row r="1571" spans="1:2">
@@ -12927,7 +12927,7 @@
         <v>1573</v>
       </c>
       <c r="B1573">
-        <v>14.78994719446026</v>
+        <v>14.78994719446025</v>
       </c>
     </row>
     <row r="1574" spans="1:2">
@@ -14255,7 +14255,7 @@
         <v>1739</v>
       </c>
       <c r="B1739">
-        <v>7.83545936833813</v>
+        <v>7.835459368338129</v>
       </c>
     </row>
     <row r="1740" spans="1:2">
@@ -14263,7 +14263,7 @@
         <v>1740</v>
       </c>
       <c r="B1740">
-        <v>2.546623206185441</v>
+        <v>2.54662320618544</v>
       </c>
     </row>
     <row r="1741" spans="1:2">
@@ -14279,7 +14279,7 @@
         <v>1742</v>
       </c>
       <c r="B1742">
-        <v>3.184128913743919</v>
+        <v>3.184128913743918</v>
       </c>
     </row>
     <row r="1743" spans="1:2">
@@ -15607,7 +15607,7 @@
         <v>1908</v>
       </c>
       <c r="B1908">
-        <v>0.5131849729583353</v>
+        <v>0.5131849729583352</v>
       </c>
     </row>
     <row r="1909" spans="1:2">
@@ -15631,7 +15631,7 @@
         <v>1911</v>
       </c>
       <c r="B1911">
-        <v>0.5099904986369267</v>
+        <v>0.5099904986369266</v>
       </c>
     </row>
     <row r="1912" spans="1:2">
@@ -15807,7 +15807,7 @@
         <v>1933</v>
       </c>
       <c r="B1933">
-        <v>8.930548611400113</v>
+        <v>8.930548611400111</v>
       </c>
     </row>
     <row r="1934" spans="1:2">
@@ -15823,7 +15823,7 @@
         <v>1935</v>
       </c>
       <c r="B1935">
-        <v>39.61998064558861</v>
+        <v>39.6199806455886</v>
       </c>
     </row>
     <row r="1936" spans="1:2">
@@ -15831,7 +15831,7 @@
         <v>1936</v>
       </c>
       <c r="B1936">
-        <v>58.09547199383848</v>
+        <v>58.09547199383847</v>
       </c>
     </row>
     <row r="1937" spans="1:2">
@@ -15839,7 +15839,7 @@
         <v>1937</v>
       </c>
       <c r="B1937">
-        <v>60.78586412874963</v>
+        <v>60.78586412874962</v>
       </c>
     </row>
     <row r="1938" spans="1:2">
@@ -17311,7 +17311,7 @@
         <v>2121</v>
       </c>
       <c r="B2121">
-        <v>7.798825488505462</v>
+        <v>7.798825488505461</v>
       </c>
     </row>
     <row r="2122" spans="1:2">
@@ -17903,7 +17903,7 @@
         <v>2195</v>
       </c>
       <c r="B2195">
-        <v>20.34540180332472</v>
+        <v>20.34540180332471</v>
       </c>
     </row>
     <row r="2196" spans="1:2">
@@ -17943,7 +17943,7 @@
         <v>2200</v>
       </c>
       <c r="B2200">
-        <v>60.89019741851307</v>
+        <v>60.89019741851306</v>
       </c>
     </row>
     <row r="2201" spans="1:2">
@@ -18079,7 +18079,7 @@
         <v>2217</v>
       </c>
       <c r="B2217">
-        <v>16.7539334529454</v>
+        <v>16.75393345294539</v>
       </c>
     </row>
     <row r="2218" spans="1:2">
@@ -18143,7 +18143,7 @@
         <v>2225</v>
       </c>
       <c r="B2225">
-        <v>68.02471878368486</v>
+        <v>68.02471878368485</v>
       </c>
     </row>
     <row r="2226" spans="1:2">
@@ -18151,7 +18151,7 @@
         <v>2226</v>
       </c>
       <c r="B2226">
-        <v>53.80022285121781</v>
+        <v>53.8002228512178</v>
       </c>
     </row>
     <row r="2227" spans="1:2">
@@ -18271,7 +18271,7 @@
         <v>2241</v>
       </c>
       <c r="B2241">
-        <v>45.59657833700943</v>
+        <v>45.59657833700942</v>
       </c>
     </row>
     <row r="2242" spans="1:2">
@@ -18343,7 +18343,7 @@
         <v>2250</v>
       </c>
       <c r="B2250">
-        <v>89.32131195008884</v>
+        <v>89.32131195008883</v>
       </c>
     </row>
     <row r="2251" spans="1:2">
@@ -18487,7 +18487,7 @@
         <v>2268</v>
       </c>
       <c r="B2268">
-        <v>28.88748475297922</v>
+        <v>28.88748475297921</v>
       </c>
     </row>
     <row r="2269" spans="1:2">
@@ -18503,7 +18503,7 @@
         <v>2270</v>
       </c>
       <c r="B2270">
-        <v>48.84732229784107</v>
+        <v>48.84732229784106</v>
       </c>
     </row>
     <row r="2271" spans="1:2">
@@ -18719,7 +18719,7 @@
         <v>2297</v>
       </c>
       <c r="B2297">
-        <v>17.77185709152785</v>
+        <v>17.77185709152784</v>
       </c>
     </row>
     <row r="2298" spans="1:2">
@@ -19279,7 +19279,7 @@
         <v>2367</v>
       </c>
       <c r="B2367">
-        <v>25.71176697804488</v>
+        <v>25.71176697804487</v>
       </c>
     </row>
     <row r="2368" spans="1:2">
@@ -19303,7 +19303,7 @@
         <v>2370</v>
       </c>
       <c r="B2370">
-        <v>21.37668948127013</v>
+        <v>21.37668948127012</v>
       </c>
     </row>
     <row r="2371" spans="1:2">
@@ -19439,7 +19439,7 @@
         <v>2387</v>
       </c>
       <c r="B2387">
-        <v>8.903820532674198</v>
+        <v>8.903820532674196</v>
       </c>
     </row>
     <row r="2388" spans="1:2">
@@ -19655,7 +19655,7 @@
         <v>2414</v>
       </c>
       <c r="B2414">
-        <v>6.252465460112739</v>
+        <v>6.252465460112738</v>
       </c>
     </row>
     <row r="2415" spans="1:2">
@@ -19807,7 +19807,7 @@
         <v>2433</v>
       </c>
       <c r="B2433">
-        <v>2.698179032408382</v>
+        <v>2.698179032408381</v>
       </c>
     </row>
     <row r="2434" spans="1:2">
@@ -19815,7 +19815,7 @@
         <v>2434</v>
       </c>
       <c r="B2434">
-        <v>6.618921486854886</v>
+        <v>6.618921486854885</v>
       </c>
     </row>
     <row r="2435" spans="1:2">
@@ -20591,7 +20591,7 @@
         <v>2531</v>
       </c>
       <c r="B2531">
-        <v>36.79448276185458</v>
+        <v>36.79448276185457</v>
       </c>
     </row>
     <row r="2532" spans="1:2">
@@ -20623,7 +20623,7 @@
         <v>2535</v>
       </c>
       <c r="B2535">
-        <v>84.5413233095223</v>
+        <v>84.54132330952228</v>
       </c>
     </row>
     <row r="2536" spans="1:2">
@@ -21343,7 +21343,7 @@
         <v>2625</v>
       </c>
       <c r="B2625">
-        <v>18.76302334428052</v>
+        <v>18.76302334428051</v>
       </c>
     </row>
     <row r="2626" spans="1:2">
@@ -22487,7 +22487,7 @@
         <v>2768</v>
       </c>
       <c r="B2768">
-        <v>30.04388445732916</v>
+        <v>30.04388445732915</v>
       </c>
     </row>
     <row r="2769" spans="1:2">
@@ -22559,7 +22559,7 @@
         <v>2777</v>
       </c>
       <c r="B2777">
-        <v>92.82175243585996</v>
+        <v>92.82175243585992</v>
       </c>
     </row>
     <row r="2778" spans="1:2">
@@ -22695,7 +22695,7 @@
         <v>2794</v>
       </c>
       <c r="B2794">
-        <v>34.94227379751488</v>
+        <v>34.94227379751487</v>
       </c>
     </row>
     <row r="2795" spans="1:2">
@@ -23255,7 +23255,7 @@
         <v>2864</v>
       </c>
       <c r="B2864">
-        <v>26.99052384103593</v>
+        <v>26.99052384103592</v>
       </c>
     </row>
     <row r="2865" spans="1:2">
@@ -23463,7 +23463,7 @@
         <v>2890</v>
       </c>
       <c r="B2890">
-        <v>61.22166076323905</v>
+        <v>61.22166076323904</v>
       </c>
     </row>
     <row r="2891" spans="1:2">
@@ -23479,7 +23479,7 @@
         <v>2892</v>
       </c>
       <c r="B2892">
-        <v>63.12222644895788</v>
+        <v>63.12222644895787</v>
       </c>
     </row>
     <row r="2893" spans="1:2">
@@ -23495,7 +23495,7 @@
         <v>2894</v>
       </c>
       <c r="B2894">
-        <v>88.1616298501059</v>
+        <v>88.16162985010588</v>
       </c>
     </row>
     <row r="2895" spans="1:2">
@@ -23679,7 +23679,7 @@
         <v>2917</v>
       </c>
       <c r="B2917">
-        <v>108.2938517799084</v>
+        <v>108.2938517799083</v>
       </c>
     </row>
     <row r="2918" spans="1:2">
@@ -23703,7 +23703,7 @@
         <v>2920</v>
       </c>
       <c r="B2920">
-        <v>89.23456292264508</v>
+        <v>89.23456292264507</v>
       </c>
     </row>
     <row r="2921" spans="1:2">
@@ -23719,7 +23719,7 @@
         <v>2922</v>
       </c>
       <c r="B2922">
-        <v>59.06143413726628</v>
+        <v>59.06143413726627</v>
       </c>
     </row>
     <row r="2923" spans="1:2">
@@ -23839,7 +23839,7 @@
         <v>2937</v>
       </c>
       <c r="B2937">
-        <v>62.00357429438752</v>
+        <v>62.00357429438751</v>
       </c>
     </row>
     <row r="2938" spans="1:2">
@@ -23871,7 +23871,7 @@
         <v>2941</v>
       </c>
       <c r="B2941">
-        <v>61.57832821728991</v>
+        <v>61.5783282172899</v>
       </c>
     </row>
     <row r="2942" spans="1:2">
@@ -24103,7 +24103,7 @@
         <v>2970</v>
       </c>
       <c r="B2970">
-        <v>6.242852730044647</v>
+        <v>6.242852730044646</v>
       </c>
     </row>
     <row r="2971" spans="1:2">
@@ -24583,7 +24583,7 @@
         <v>3030</v>
       </c>
       <c r="B3030">
-        <v>53.991305168425</v>
+        <v>53.99130516842499</v>
       </c>
     </row>
     <row r="3031" spans="1:2">
@@ -24607,7 +24607,7 @@
         <v>3033</v>
       </c>
       <c r="B3033">
-        <v>118.9522593139442</v>
+        <v>118.9522593139441</v>
       </c>
     </row>
     <row r="3034" spans="1:2">
@@ -24871,7 +24871,7 @@
         <v>3066</v>
       </c>
       <c r="B3066">
-        <v>52.55965314456433</v>
+        <v>52.55965314456432</v>
       </c>
     </row>
     <row r="3067" spans="1:2">
@@ -25047,7 +25047,7 @@
         <v>3088</v>
       </c>
       <c r="B3088">
-        <v>34.23655873641836</v>
+        <v>34.23655873641835</v>
       </c>
     </row>
     <row r="3089" spans="1:2">
@@ -25215,7 +25215,7 @@
         <v>3109</v>
       </c>
       <c r="B3109">
-        <v>85.58582849131133</v>
+        <v>85.58582849131132</v>
       </c>
     </row>
     <row r="3110" spans="1:2">
@@ -25919,7 +25919,7 @@
         <v>3197</v>
       </c>
       <c r="B3197">
-        <v>129.5227455363816</v>
+        <v>129.5227455363815</v>
       </c>
     </row>
     <row r="3198" spans="1:2">
@@ -25927,7 +25927,7 @@
         <v>3198</v>
       </c>
       <c r="B3198">
-        <v>71.53043454815187</v>
+        <v>71.53043454815186</v>
       </c>
     </row>
     <row r="3199" spans="1:2">
@@ -26335,7 +26335,7 @@
         <v>3249</v>
       </c>
       <c r="B3249">
-        <v>86.26868401139227</v>
+        <v>86.26868401139225</v>
       </c>
     </row>
     <row r="3250" spans="1:2">
@@ -26343,7 +26343,7 @@
         <v>3250</v>
       </c>
       <c r="B3250">
-        <v>94.12328091855498</v>
+        <v>94.12328091855495</v>
       </c>
     </row>
     <row r="3251" spans="1:2">
@@ -26399,7 +26399,7 @@
         <v>3257</v>
       </c>
       <c r="B3257">
-        <v>138.386679100694</v>
+        <v>138.3866791006939</v>
       </c>
     </row>
     <row r="3258" spans="1:2">
@@ -26791,7 +26791,7 @@
         <v>3306</v>
       </c>
       <c r="B3306">
-        <v>4.210199927201154</v>
+        <v>4.210199927201153</v>
       </c>
     </row>
     <row r="3307" spans="1:2">
@@ -27335,7 +27335,7 @@
         <v>3374</v>
       </c>
       <c r="B3374">
-        <v>45.45150817287206</v>
+        <v>45.45150817287205</v>
       </c>
     </row>
     <row r="3375" spans="1:2">
@@ -27343,7 +27343,7 @@
         <v>3375</v>
       </c>
       <c r="B3375">
-        <v>59.24694810473891</v>
+        <v>59.2469481047389</v>
       </c>
     </row>
     <row r="3376" spans="1:2">
@@ -27351,7 +27351,7 @@
         <v>3376</v>
       </c>
       <c r="B3376">
-        <v>47.37991560726371</v>
+        <v>47.3799156072637</v>
       </c>
     </row>
     <row r="3377" spans="1:2">
@@ -27879,7 +27879,7 @@
         <v>3442</v>
       </c>
       <c r="B3442">
-        <v>110.6524874990549</v>
+        <v>110.6524874990548</v>
       </c>
     </row>
     <row r="3443" spans="1:2">
@@ -27895,7 +27895,7 @@
         <v>3444</v>
       </c>
       <c r="B3444">
-        <v>99.43783113363982</v>
+        <v>99.4378311336398</v>
       </c>
     </row>
     <row r="3445" spans="1:2">
@@ -28847,7 +28847,7 @@
         <v>3563</v>
       </c>
       <c r="B3563">
-        <v>166.2146534347047</v>
+        <v>166.2146534347046</v>
       </c>
     </row>
     <row r="3564" spans="1:2">
@@ -29191,7 +29191,7 @@
         <v>3606</v>
       </c>
       <c r="B3606">
-        <v>89.23983820134099</v>
+        <v>89.23983820134097</v>
       </c>
     </row>
     <row r="3607" spans="1:2">
@@ -29271,7 +29271,7 @@
         <v>3616</v>
       </c>
       <c r="B3616">
-        <v>173.9693131176839</v>
+        <v>173.9693131176838</v>
       </c>
     </row>
     <row r="3617" spans="1:2">
@@ -29407,7 +29407,7 @@
         <v>3633</v>
       </c>
       <c r="B3633">
-        <v>142.5626483305795</v>
+        <v>142.5626483305794</v>
       </c>
     </row>
     <row r="3634" spans="1:2">
@@ -29839,7 +29839,7 @@
         <v>3687</v>
       </c>
       <c r="B3687">
-        <v>6.541843803686952</v>
+        <v>6.541843803686951</v>
       </c>
     </row>
     <row r="3688" spans="1:2">
@@ -30151,7 +30151,7 @@
         <v>3726</v>
       </c>
       <c r="B3726">
-        <v>53.63991299307005</v>
+        <v>53.63991299307004</v>
       </c>
     </row>
     <row r="3727" spans="1:2">
@@ -30375,7 +30375,7 @@
         <v>3754</v>
       </c>
       <c r="B3754">
-        <v>106.9586201277673</v>
+        <v>106.9586201277672</v>
       </c>
     </row>
     <row r="3755" spans="1:2">
@@ -30599,7 +30599,7 @@
         <v>3782</v>
       </c>
       <c r="B3782">
-        <v>155.771653114085</v>
+        <v>155.7716531140849</v>
       </c>
     </row>
     <row r="3783" spans="1:2">
@@ -30623,7 +30623,7 @@
         <v>3785</v>
       </c>
       <c r="B3785">
-        <v>159.0833558509582</v>
+        <v>159.0833558509581</v>
       </c>
     </row>
     <row r="3786" spans="1:2">
@@ -31311,7 +31311,7 @@
         <v>3871</v>
       </c>
       <c r="B3871">
-        <v>79.66784500762279</v>
+        <v>79.66784500762277</v>
       </c>
     </row>
     <row r="3872" spans="1:2">
@@ -31487,7 +31487,7 @@
         <v>3893</v>
       </c>
       <c r="B3893">
-        <v>76.57272176832032</v>
+        <v>76.57272176832031</v>
       </c>
     </row>
     <row r="3894" spans="1:2">
@@ -31695,7 +31695,7 @@
         <v>3919</v>
       </c>
       <c r="B3919">
-        <v>67.39608140575628</v>
+        <v>67.39608140575626</v>
       </c>
     </row>
     <row r="3920" spans="1:2">
@@ -31959,7 +31959,7 @@
         <v>3952</v>
       </c>
       <c r="B3952">
-        <v>186.6695465780733</v>
+        <v>186.6695465780732</v>
       </c>
     </row>
     <row r="3953" spans="1:2">
@@ -32063,7 +32063,7 @@
         <v>3965</v>
       </c>
       <c r="B3965">
-        <v>192.6684176684324</v>
+        <v>192.6684176684323</v>
       </c>
     </row>
     <row r="3966" spans="1:2">
@@ -32127,7 +32127,7 @@
         <v>3973</v>
       </c>
       <c r="B3973">
-        <v>161.0167454930071</v>
+        <v>161.016745493007</v>
       </c>
     </row>
     <row r="3974" spans="1:2">
@@ -32311,7 +32311,7 @@
         <v>3996</v>
       </c>
       <c r="B3996">
-        <v>9.783854247566486</v>
+        <v>9.783854247566484</v>
       </c>
     </row>
     <row r="3997" spans="1:2">
@@ -32511,7 +32511,7 @@
         <v>4021</v>
       </c>
       <c r="B4021">
-        <v>20.77378374053601</v>
+        <v>20.773783740536</v>
       </c>
     </row>
     <row r="4022" spans="1:2">
@@ -32519,7 +32519,7 @@
         <v>4022</v>
       </c>
       <c r="B4022">
-        <v>41.45431227656997</v>
+        <v>41.45431227656996</v>
       </c>
     </row>
     <row r="4023" spans="1:2">
@@ -32527,7 +32527,7 @@
         <v>4023</v>
       </c>
       <c r="B4023">
-        <v>62.13604240386245</v>
+        <v>62.13604240386244</v>
       </c>
     </row>
     <row r="4024" spans="1:2">
@@ -32551,7 +32551,7 @@
         <v>4026</v>
       </c>
       <c r="B4026">
-        <v>77.45427945261365</v>
+        <v>77.45427945261363</v>
       </c>
     </row>
     <row r="4027" spans="1:2">
@@ -32559,7 +32559,7 @@
         <v>4027</v>
       </c>
       <c r="B4027">
-        <v>62.05720629446255</v>
+        <v>62.05720629446254</v>
       </c>
     </row>
     <row r="4028" spans="1:2">
@@ -32671,7 +32671,7 @@
         <v>4041</v>
       </c>
       <c r="B4041">
-        <v>161.8241562045191</v>
+        <v>161.824156204519</v>
       </c>
     </row>
     <row r="4042" spans="1:2">
@@ -32711,7 +32711,7 @@
         <v>4046</v>
       </c>
       <c r="B4046">
-        <v>174.6263783863626</v>
+        <v>174.6263783863625</v>
       </c>
     </row>
     <row r="4047" spans="1:2">
@@ -32871,7 +32871,7 @@
         <v>4066</v>
       </c>
       <c r="B4066">
-        <v>173.6864995653757</v>
+        <v>173.6864995653756</v>
       </c>
     </row>
     <row r="4067" spans="1:2">
@@ -32911,7 +32911,7 @@
         <v>4071</v>
       </c>
       <c r="B4071">
-        <v>186.0965926974904</v>
+        <v>186.0965926974903</v>
       </c>
     </row>
     <row r="4072" spans="1:2">
@@ -33047,7 +33047,7 @@
         <v>4088</v>
       </c>
       <c r="B4088">
-        <v>140.5724029070303</v>
+        <v>140.5724029070302</v>
       </c>
     </row>
     <row r="4089" spans="1:2">
@@ -33223,7 +33223,7 @@
         <v>4110</v>
       </c>
       <c r="B4110">
-        <v>93.42313420719304</v>
+        <v>93.42313420719302</v>
       </c>
     </row>
     <row r="4111" spans="1:2">
@@ -33231,7 +33231,7 @@
         <v>4111</v>
       </c>
       <c r="B4111">
-        <v>81.50510734899076</v>
+        <v>81.50510734899075</v>
       </c>
     </row>
     <row r="4112" spans="1:2">
@@ -33823,7 +33823,7 @@
         <v>4185</v>
       </c>
       <c r="B4185">
-        <v>27.01865866074742</v>
+        <v>27.01865866074741</v>
       </c>
     </row>
     <row r="4186" spans="1:2">
@@ -33839,7 +33839,7 @@
         <v>4187</v>
       </c>
       <c r="B4187">
-        <v>37.27629154941384</v>
+        <v>37.27629154941383</v>
       </c>
     </row>
     <row r="4188" spans="1:2">
@@ -33855,7 +33855,7 @@
         <v>4189</v>
       </c>
       <c r="B4189">
-        <v>42.35081658383503</v>
+        <v>42.35081658383502</v>
       </c>
     </row>
     <row r="4190" spans="1:2">
@@ -33879,7 +33879,7 @@
         <v>4192</v>
       </c>
       <c r="B4192">
-        <v>77.28341903707408</v>
+        <v>77.28341903707407</v>
       </c>
     </row>
     <row r="4193" spans="1:2">
@@ -33887,7 +33887,7 @@
         <v>4193</v>
       </c>
       <c r="B4193">
-        <v>78.18226791264843</v>
+        <v>78.18226791264841</v>
       </c>
     </row>
     <row r="4194" spans="1:2">
@@ -33983,7 +33983,7 @@
         <v>4205</v>
       </c>
       <c r="B4205">
-        <v>317.6977980400582</v>
+        <v>317.6977980400581</v>
       </c>
     </row>
     <row r="4206" spans="1:2">
@@ -34263,7 +34263,7 @@
         <v>4240</v>
       </c>
       <c r="B4240">
-        <v>169.4264189473944</v>
+        <v>169.4264189473943</v>
       </c>
     </row>
     <row r="4241" spans="1:2">
@@ -34407,7 +34407,7 @@
         <v>4258</v>
       </c>
       <c r="B4258">
-        <v>103.2026216962835</v>
+        <v>103.2026216962834</v>
       </c>
     </row>
     <row r="4259" spans="1:2">
@@ -34599,7 +34599,7 @@
         <v>4282</v>
       </c>
       <c r="B4282">
-        <v>123.0699074071361</v>
+        <v>123.069907407136</v>
       </c>
     </row>
     <row r="4283" spans="1:2">
@@ -34639,7 +34639,7 @@
         <v>4287</v>
       </c>
       <c r="B4287">
-        <v>137.780022050665</v>
+        <v>137.7800220506649</v>
       </c>
     </row>
     <row r="4288" spans="1:2">
@@ -34775,7 +34775,7 @@
         <v>4304</v>
       </c>
       <c r="B4304">
-        <v>88.38553612364316</v>
+        <v>88.38553612364315</v>
       </c>
     </row>
     <row r="4305" spans="1:2">
@@ -35239,7 +35239,7 @@
         <v>4362</v>
       </c>
       <c r="B4362">
-        <v>13.03497920074839</v>
+        <v>13.03497920074838</v>
       </c>
     </row>
     <row r="4363" spans="1:2">
@@ -35247,7 +35247,7 @@
         <v>4363</v>
       </c>
       <c r="B4363">
-        <v>6.228462942046376</v>
+        <v>6.228462942046375</v>
       </c>
     </row>
     <row r="4364" spans="1:2">
@@ -36111,7 +36111,7 @@
         <v>4471</v>
       </c>
       <c r="B4471">
-        <v>98.06479331751142</v>
+        <v>98.0647933175114</v>
       </c>
     </row>
     <row r="4472" spans="1:2">
@@ -36359,7 +36359,7 @@
         <v>4502</v>
       </c>
       <c r="B4502">
-        <v>27.18714520087382</v>
+        <v>27.18714520087381</v>
       </c>
     </row>
     <row r="4503" spans="1:2">
@@ -36431,7 +36431,7 @@
         <v>4511</v>
       </c>
       <c r="B4511">
-        <v>1.181864646899221</v>
+        <v>1.18186464689922</v>
       </c>
     </row>
     <row r="4512" spans="1:2">
@@ -36519,7 +36519,7 @@
         <v>4522</v>
       </c>
       <c r="B4522">
-        <v>49.10229410147644</v>
+        <v>49.10229410147643</v>
       </c>
     </row>
     <row r="4523" spans="1:2">
@@ -36551,7 +36551,7 @@
         <v>4526</v>
       </c>
       <c r="B4526">
-        <v>77.5304779226656</v>
+        <v>77.53047792266558</v>
       </c>
     </row>
     <row r="4527" spans="1:2">
@@ -36687,7 +36687,7 @@
         <v>4543</v>
       </c>
       <c r="B4543">
-        <v>181.2014271387299</v>
+        <v>181.2014271387298</v>
       </c>
     </row>
     <row r="4544" spans="1:2">
@@ -37055,7 +37055,7 @@
         <v>4589</v>
       </c>
       <c r="B4589">
-        <v>56.15416943374573</v>
+        <v>56.15416943374572</v>
       </c>
     </row>
     <row r="4590" spans="1:2">
@@ -37063,7 +37063,7 @@
         <v>4590</v>
       </c>
       <c r="B4590">
-        <v>50.91904147013812</v>
+        <v>50.91904147013811</v>
       </c>
     </row>
     <row r="4591" spans="1:2">
@@ -37247,7 +37247,7 @@
         <v>4613</v>
       </c>
       <c r="B4613">
-        <v>121.6400138095074</v>
+        <v>121.6400138095073</v>
       </c>
     </row>
     <row r="4614" spans="1:2">
@@ -37271,7 +37271,7 @@
         <v>4616</v>
       </c>
       <c r="B4616">
-        <v>98.3417454490464</v>
+        <v>98.34174544904636</v>
       </c>
     </row>
     <row r="4617" spans="1:2">
@@ -37343,7 +37343,7 @@
         <v>4625</v>
       </c>
       <c r="B4625">
-        <v>96.44879961033276</v>
+        <v>96.44879961033274</v>
       </c>
     </row>
     <row r="4626" spans="1:2">
@@ -37487,7 +37487,7 @@
         <v>4643</v>
       </c>
       <c r="B4643">
-        <v>96.38315169767262</v>
+        <v>96.3831516976726</v>
       </c>
     </row>
     <row r="4644" spans="1:2">
@@ -37879,7 +37879,7 @@
         <v>4692</v>
       </c>
       <c r="B4692">
-        <v>25.07984720448329</v>
+        <v>25.07984720448328</v>
       </c>
     </row>
     <row r="4693" spans="1:2">
@@ -38239,7 +38239,7 @@
         <v>4737</v>
       </c>
       <c r="B4737">
-        <v>163.6051489064641</v>
+        <v>163.605148906464</v>
       </c>
     </row>
     <row r="4738" spans="1:2">
@@ -38255,7 +38255,7 @@
         <v>4739</v>
       </c>
       <c r="B4739">
-        <v>166.584802156534</v>
+        <v>166.5848021565339</v>
       </c>
     </row>
     <row r="4740" spans="1:2">
@@ -38263,7 +38263,7 @@
         <v>4740</v>
       </c>
       <c r="B4740">
-        <v>148.8296794213137</v>
+        <v>148.8296794213136</v>
       </c>
     </row>
     <row r="4741" spans="1:2">
@@ -38423,7 +38423,7 @@
         <v>4760</v>
       </c>
       <c r="B4760">
-        <v>154.1263523030402</v>
+        <v>154.1263523030401</v>
       </c>
     </row>
     <row r="4761" spans="1:2">
@@ -38487,7 +38487,7 @@
         <v>4768</v>
       </c>
       <c r="B4768">
-        <v>162.2751925330189</v>
+        <v>162.2751925330188</v>
       </c>
     </row>
     <row r="4769" spans="1:2">
@@ -38815,7 +38815,7 @@
         <v>4809</v>
       </c>
       <c r="B4809">
-        <v>161.9325924888238</v>
+        <v>161.9325924888237</v>
       </c>
     </row>
     <row r="4810" spans="1:2">
@@ -38855,7 +38855,7 @@
         <v>4814</v>
       </c>
       <c r="B4814">
-        <v>186.3489268617778</v>
+        <v>186.3489268617777</v>
       </c>
     </row>
     <row r="4815" spans="1:2">
@@ -39079,7 +39079,7 @@
         <v>4842</v>
       </c>
       <c r="B4842">
-        <v>25.53322810129239</v>
+        <v>25.53322810129238</v>
       </c>
     </row>
     <row r="4843" spans="1:2">
@@ -39223,7 +39223,7 @@
         <v>4860</v>
       </c>
       <c r="B4860">
-        <v>86.78595439462954</v>
+        <v>86.78595439462953</v>
       </c>
     </row>
     <row r="4861" spans="1:2">
@@ -39231,7 +39231,7 @@
         <v>4861</v>
       </c>
       <c r="B4861">
-        <v>77.39068303722414</v>
+        <v>77.39068303722412</v>
       </c>
     </row>
     <row r="4862" spans="1:2">
@@ -39239,7 +39239,7 @@
         <v>4862</v>
       </c>
       <c r="B4862">
-        <v>60.37322010631446</v>
+        <v>60.37322010631445</v>
       </c>
     </row>
     <row r="4863" spans="1:2">
@@ -39607,7 +39607,7 @@
         <v>4908</v>
       </c>
       <c r="B4908">
-        <v>158.2182101448299</v>
+        <v>158.2182101448298</v>
       </c>
     </row>
     <row r="4909" spans="1:2">
@@ -39751,7 +39751,7 @@
         <v>4926</v>
       </c>
       <c r="B4926">
-        <v>120.3563626601707</v>
+        <v>120.3563626601706</v>
       </c>
     </row>
     <row r="4927" spans="1:2">
@@ -39823,7 +39823,7 @@
         <v>4935</v>
       </c>
       <c r="B4935">
-        <v>144.0880830868118</v>
+        <v>144.0880830868117</v>
       </c>
     </row>
     <row r="4936" spans="1:2">
@@ -40031,7 +40031,7 @@
         <v>4961</v>
       </c>
       <c r="B4961">
-        <v>122.4664741385324</v>
+        <v>122.4664741385323</v>
       </c>
     </row>
     <row r="4962" spans="1:2">
@@ -40175,7 +40175,7 @@
         <v>4979</v>
       </c>
       <c r="B4979">
-        <v>102.7468962311651</v>
+        <v>102.746896231165</v>
       </c>
     </row>
     <row r="4980" spans="1:2">
@@ -40599,7 +40599,7 @@
         <v>5032</v>
       </c>
       <c r="B5032">
-        <v>7.479172906637532</v>
+        <v>7.479172906637531</v>
       </c>
     </row>
     <row r="5033" spans="1:2">
@@ -40807,7 +40807,7 @@
         <v>5058</v>
       </c>
       <c r="B5058">
-        <v>82.51649550341106</v>
+        <v>82.51649550341105</v>
       </c>
     </row>
     <row r="5059" spans="1:2">
@@ -41111,7 +41111,7 @@
         <v>5096</v>
       </c>
       <c r="B5096">
-        <v>98.2840104544301</v>
+        <v>98.28401045443007</v>
       </c>
     </row>
     <row r="5097" spans="1:2">
@@ -41551,7 +41551,7 @@
         <v>5151</v>
       </c>
       <c r="B5151">
-        <v>121.6233087603037</v>
+        <v>121.6233087603036</v>
       </c>
     </row>
     <row r="5152" spans="1:2">
@@ -41719,7 +41719,7 @@
         <v>5172</v>
       </c>
       <c r="B5172">
-        <v>6.560395200434215</v>
+        <v>6.560395200434214</v>
       </c>
     </row>
     <row r="5173" spans="1:2">
@@ -41727,7 +41727,7 @@
         <v>5173</v>
       </c>
       <c r="B5173">
-        <v>6.546796704240328</v>
+        <v>6.546796704240327</v>
       </c>
     </row>
     <row r="5174" spans="1:2">
@@ -41799,7 +41799,7 @@
         <v>5182</v>
       </c>
       <c r="B5182">
-        <v>3.9947634066812</v>
+        <v>3.994763406681199</v>
       </c>
     </row>
     <row r="5183" spans="1:2">
@@ -41903,7 +41903,7 @@
         <v>5195</v>
       </c>
       <c r="B5195">
-        <v>7.346147962189147</v>
+        <v>7.346147962189146</v>
       </c>
     </row>
     <row r="5196" spans="1:2">
@@ -42247,7 +42247,7 @@
         <v>5238</v>
       </c>
       <c r="B5238">
-        <v>30.75487479712158</v>
+        <v>30.75487479712157</v>
       </c>
     </row>
     <row r="5239" spans="1:2">
@@ -42271,7 +42271,7 @@
         <v>5241</v>
       </c>
       <c r="B5241">
-        <v>99.4577599642688</v>
+        <v>99.45775996426876</v>
       </c>
     </row>
     <row r="5242" spans="1:2">
@@ -42631,7 +42631,7 @@
         <v>5286</v>
       </c>
       <c r="B5286">
-        <v>49.58615438630632</v>
+        <v>49.58615438630631</v>
       </c>
     </row>
     <row r="5287" spans="1:2">
@@ -43287,7 +43287,7 @@
         <v>5368</v>
       </c>
       <c r="B5368">
-        <v>23.957678197449</v>
+        <v>23.95767819744899</v>
       </c>
     </row>
     <row r="5369" spans="1:2">
@@ -43479,7 +43479,7 @@
         <v>5392</v>
       </c>
       <c r="B5392">
-        <v>160.6929019952863</v>
+        <v>160.6929019952862</v>
       </c>
     </row>
     <row r="5393" spans="1:2">
@@ -43639,7 +43639,7 @@
         <v>5412</v>
       </c>
       <c r="B5412">
-        <v>155.0589043480606</v>
+        <v>155.0589043480605</v>
       </c>
     </row>
     <row r="5413" spans="1:2">
@@ -43799,7 +43799,7 @@
         <v>5432</v>
       </c>
       <c r="B5432">
-        <v>59.65226535120755</v>
+        <v>59.65226535120754</v>
       </c>
     </row>
     <row r="5433" spans="1:2">
@@ -43831,7 +43831,7 @@
         <v>5436</v>
       </c>
       <c r="B5436">
-        <v>82.28731395117789</v>
+        <v>82.28731395117788</v>
       </c>
     </row>
     <row r="5437" spans="1:2">
@@ -43863,7 +43863,7 @@
         <v>5440</v>
       </c>
       <c r="B5440">
-        <v>101.9016793556658</v>
+        <v>101.9016793556657</v>
       </c>
     </row>
     <row r="5441" spans="1:2">
@@ -43967,7 +43967,7 @@
         <v>5453</v>
       </c>
       <c r="B5453">
-        <v>51.12800112070366</v>
+        <v>51.12800112070365</v>
       </c>
     </row>
     <row r="5454" spans="1:2">
@@ -44047,7 +44047,7 @@
         <v>5463</v>
       </c>
       <c r="B5463">
-        <v>62.61755812038304</v>
+        <v>62.61755812038303</v>
       </c>
     </row>
     <row r="5464" spans="1:2">
@@ -44167,7 +44167,7 @@
         <v>5478</v>
       </c>
       <c r="B5478">
-        <v>32.0405774437289</v>
+        <v>32.04057744372889</v>
       </c>
     </row>
     <row r="5479" spans="1:2">
@@ -44199,7 +44199,7 @@
         <v>5482</v>
       </c>
       <c r="B5482">
-        <v>53.94529301535517</v>
+        <v>53.94529301535516</v>
       </c>
     </row>
     <row r="5483" spans="1:2">
@@ -44207,7 +44207,7 @@
         <v>5483</v>
       </c>
       <c r="B5483">
-        <v>58.79620484727776</v>
+        <v>58.79620484727775</v>
       </c>
     </row>
     <row r="5484" spans="1:2">
@@ -44647,7 +44647,7 @@
         <v>5538</v>
       </c>
       <c r="B5538">
-        <v>0.1206948597098245</v>
+        <v>0.1206948597098244</v>
       </c>
     </row>
     <row r="5539" spans="1:2">
@@ -44743,7 +44743,7 @@
         <v>5550</v>
       </c>
       <c r="B5550">
-        <v>160.655095831299</v>
+        <v>160.6550958312989</v>
       </c>
     </row>
     <row r="5551" spans="1:2">
@@ -45167,7 +45167,7 @@
         <v>5603</v>
       </c>
       <c r="B5603">
-        <v>71.3800891053186</v>
+        <v>71.38008910531859</v>
       </c>
     </row>
     <row r="5604" spans="1:2">
@@ -45319,7 +45319,7 @@
         <v>5622</v>
       </c>
       <c r="B5622">
-        <v>6.208885796663797</v>
+        <v>6.208885796663796</v>
       </c>
     </row>
     <row r="5623" spans="1:2">
@@ -45407,7 +45407,7 @@
         <v>5633</v>
       </c>
       <c r="B5633">
-        <v>127.8903398510379</v>
+        <v>127.8903398510378</v>
       </c>
     </row>
     <row r="5634" spans="1:2">
@@ -45503,7 +45503,7 @@
         <v>5645</v>
       </c>
       <c r="B5645">
-        <v>16.88379323017624</v>
+        <v>16.88379323017623</v>
       </c>
     </row>
     <row r="5646" spans="1:2">
@@ -45911,7 +45911,7 @@
         <v>5696</v>
       </c>
       <c r="B5696">
-        <v>7.389258711976232</v>
+        <v>7.389258711976231</v>
       </c>
     </row>
     <row r="5697" spans="1:2">
@@ -45919,7 +45919,7 @@
         <v>5697</v>
       </c>
       <c r="B5697">
-        <v>26.98595193283281</v>
+        <v>26.9859519328328</v>
       </c>
     </row>
     <row r="5698" spans="1:2">
@@ -45943,7 +45943,7 @@
         <v>5700</v>
       </c>
       <c r="B5700">
-        <v>25.47054020612273</v>
+        <v>25.47054020612272</v>
       </c>
     </row>
     <row r="5701" spans="1:2">
@@ -45959,7 +45959,7 @@
         <v>5702</v>
       </c>
       <c r="B5702">
-        <v>41.85171660499476</v>
+        <v>41.85171660499475</v>
       </c>
     </row>
     <row r="5703" spans="1:2">
@@ -46079,7 +46079,7 @@
         <v>5717</v>
       </c>
       <c r="B5717">
-        <v>292.5256334583966</v>
+        <v>292.5256334583965</v>
       </c>
     </row>
     <row r="5718" spans="1:2">
@@ -46175,7 +46175,7 @@
         <v>5729</v>
       </c>
       <c r="B5729">
-        <v>144.2404800269157</v>
+        <v>144.2404800269156</v>
       </c>
     </row>
     <row r="5730" spans="1:2">
@@ -46279,7 +46279,7 @@
         <v>5742</v>
       </c>
       <c r="B5742">
-        <v>79.38766909466254</v>
+        <v>79.38766909466253</v>
       </c>
     </row>
     <row r="5743" spans="1:2">
@@ -46487,7 +46487,7 @@
         <v>5768</v>
       </c>
       <c r="B5768">
-        <v>98.84113849892532</v>
+        <v>98.8411384989253</v>
       </c>
     </row>
     <row r="5769" spans="1:2">
@@ -46527,7 +46527,7 @@
         <v>5773</v>
       </c>
       <c r="B5773">
-        <v>98.06215567816346</v>
+        <v>98.06215567816344</v>
       </c>
     </row>
     <row r="5774" spans="1:2">
@@ -46671,7 +46671,7 @@
         <v>5791</v>
       </c>
       <c r="B5791">
-        <v>45.34219267545138</v>
+        <v>45.34219267545137</v>
       </c>
     </row>
     <row r="5792" spans="1:2">
@@ -46887,7 +46887,7 @@
         <v>5818</v>
       </c>
       <c r="B5818">
-        <v>111.454622931871</v>
+        <v>111.4546229318709</v>
       </c>
     </row>
     <row r="5819" spans="1:2">
@@ -47487,7 +47487,7 @@
         <v>5893</v>
       </c>
       <c r="B5893">
-        <v>0.6973127144180987</v>
+        <v>0.6973127144180986</v>
       </c>
     </row>
     <row r="5894" spans="1:2">
@@ -47511,7 +47511,7 @@
         <v>5896</v>
       </c>
       <c r="B5896">
-        <v>23.5039456153935</v>
+        <v>23.50394561539349</v>
       </c>
     </row>
     <row r="5897" spans="1:2">
@@ -47815,7 +47815,7 @@
         <v>5934</v>
       </c>
       <c r="B5934">
-        <v>6.107629752806302</v>
+        <v>6.107629752806301</v>
       </c>
     </row>
     <row r="5935" spans="1:2">
@@ -47831,7 +47831,7 @@
         <v>5936</v>
       </c>
       <c r="B5936">
-        <v>52.18481528611647</v>
+        <v>52.18481528611646</v>
       </c>
     </row>
     <row r="5937" spans="1:2">
@@ -47895,7 +47895,7 @@
         <v>5944</v>
       </c>
       <c r="B5944">
-        <v>128.0814221682451</v>
+        <v>128.081422168245</v>
       </c>
     </row>
     <row r="5945" spans="1:2">
@@ -48031,7 +48031,7 @@
         <v>5961</v>
       </c>
       <c r="B5961">
-        <v>57.72854705343448</v>
+        <v>57.72854705343447</v>
       </c>
     </row>
     <row r="5962" spans="1:2">
@@ -48039,7 +48039,7 @@
         <v>5962</v>
       </c>
       <c r="B5962">
-        <v>49.61927141367505</v>
+        <v>49.61927141367504</v>
       </c>
     </row>
     <row r="5963" spans="1:2">
@@ -48663,7 +48663,7 @@
         <v>6040</v>
       </c>
       <c r="B6040">
-        <v>0.8197050415838497</v>
+        <v>0.8197050415838496</v>
       </c>
     </row>
     <row r="6041" spans="1:2">
@@ -48671,7 +48671,7 @@
         <v>6041</v>
       </c>
       <c r="B6041">
-        <v>2.752860226801816</v>
+        <v>2.752860226801815</v>
       </c>
     </row>
     <row r="6042" spans="1:2">
@@ -48775,7 +48775,7 @@
         <v>6054</v>
       </c>
       <c r="B6054">
-        <v>146.2579810570604</v>
+        <v>146.2579810570603</v>
       </c>
     </row>
     <row r="6055" spans="1:2">
@@ -48807,7 +48807,7 @@
         <v>6058</v>
       </c>
       <c r="B6058">
-        <v>98.91792311105461</v>
+        <v>98.91792311105458</v>
       </c>
     </row>
     <row r="6059" spans="1:2">
@@ -48855,7 +48855,7 @@
         <v>6064</v>
       </c>
       <c r="B6064">
-        <v>99.4735858003565</v>
+        <v>99.47358580035647</v>
       </c>
     </row>
     <row r="6065" spans="1:2">
@@ -48871,7 +48871,7 @@
         <v>6066</v>
       </c>
       <c r="B6066">
-        <v>72.77686567557858</v>
+        <v>72.77686567557856</v>
       </c>
     </row>
     <row r="6067" spans="1:2">
@@ -49183,7 +49183,7 @@
         <v>6105</v>
       </c>
       <c r="B6105">
-        <v>85.16058241421372</v>
+        <v>85.16058241421371</v>
       </c>
     </row>
     <row r="6106" spans="1:2">
@@ -50167,7 +50167,7 @@
         <v>6228</v>
       </c>
       <c r="B6228">
-        <v>119.6535783094608</v>
+        <v>119.6535783094607</v>
       </c>
     </row>
     <row r="6229" spans="1:2">
@@ -50351,7 +50351,7 @@
         <v>6251</v>
       </c>
       <c r="B6251">
-        <v>87.25691955375832</v>
+        <v>87.25691955375831</v>
       </c>
     </row>
     <row r="6252" spans="1:2">
@@ -50375,7 +50375,7 @@
         <v>6254</v>
       </c>
       <c r="B6254">
-        <v>92.65821879628692</v>
+        <v>92.6582187962869</v>
       </c>
     </row>
     <row r="6255" spans="1:2">
@@ -50407,7 +50407,7 @@
         <v>6258</v>
       </c>
       <c r="B6258">
-        <v>79.61948828624367</v>
+        <v>79.61948828624365</v>
       </c>
     </row>
     <row r="6259" spans="1:2">
@@ -50879,7 +50879,7 @@
         <v>6317</v>
       </c>
       <c r="B6317">
-        <v>6.247981473221221</v>
+        <v>6.24798147322122</v>
       </c>
     </row>
     <row r="6318" spans="1:2">
@@ -50895,7 +50895,7 @@
         <v>6319</v>
       </c>
       <c r="B6319">
-        <v>5.953650229093632</v>
+        <v>5.953650229093631</v>
       </c>
     </row>
     <row r="6320" spans="1:2">
@@ -51511,7 +51511,7 @@
         <v>6396</v>
       </c>
       <c r="B6396">
-        <v>27.58123782656174</v>
+        <v>27.58123782656173</v>
       </c>
     </row>
     <row r="6397" spans="1:2">
@@ -51743,7 +51743,7 @@
         <v>6425</v>
       </c>
       <c r="B6425">
-        <v>53.33922210740351</v>
+        <v>53.3392221074035</v>
       </c>
     </row>
     <row r="6426" spans="1:2">
@@ -51895,7 +51895,7 @@
         <v>6444</v>
       </c>
       <c r="B6444">
-        <v>56.40621052699449</v>
+        <v>56.40621052699448</v>
       </c>
     </row>
     <row r="6445" spans="1:2">
@@ -52127,7 +52127,7 @@
         <v>6473</v>
       </c>
       <c r="B6473">
-        <v>97.08857368773047</v>
+        <v>97.08857368773046</v>
       </c>
     </row>
     <row r="6474" spans="1:2">
@@ -52239,7 +52239,7 @@
         <v>6487</v>
       </c>
       <c r="B6487">
-        <v>3.335060498654512</v>
+        <v>3.335060498654511</v>
       </c>
     </row>
     <row r="6488" spans="1:2">
@@ -52319,7 +52319,7 @@
         <v>6497</v>
       </c>
       <c r="B6497">
-        <v>24.76863506852881</v>
+        <v>24.7686350685288</v>
       </c>
     </row>
     <row r="6498" spans="1:2">
@@ -52863,7 +52863,7 @@
         <v>6565</v>
       </c>
       <c r="B6565">
-        <v>55.05339461253372</v>
+        <v>55.05339461253371</v>
       </c>
     </row>
     <row r="6566" spans="1:2">
@@ -52903,7 +52903,7 @@
         <v>6570</v>
       </c>
       <c r="B6570">
-        <v>18.46611307501271</v>
+        <v>18.4661130750127</v>
       </c>
     </row>
     <row r="6571" spans="1:2">
@@ -53063,7 +53063,7 @@
         <v>6590</v>
       </c>
       <c r="B6590">
-        <v>93.69070806549084</v>
+        <v>93.69070806549082</v>
       </c>
     </row>
     <row r="6591" spans="1:2">
@@ -53247,7 +53247,7 @@
         <v>6613</v>
       </c>
       <c r="B6613">
-        <v>100.9949175620476</v>
+        <v>100.9949175620475</v>
       </c>
     </row>
     <row r="6614" spans="1:2">
@@ -53287,7 +53287,7 @@
         <v>6618</v>
       </c>
       <c r="B6618">
-        <v>81.55551556764051</v>
+        <v>81.5555155676405</v>
       </c>
     </row>
     <row r="6619" spans="1:2">
@@ -53391,7 +53391,7 @@
         <v>6631</v>
       </c>
       <c r="B6631">
-        <v>10.9710850251836</v>
+        <v>10.97108502518359</v>
       </c>
     </row>
     <row r="6632" spans="1:2">
@@ -53431,7 +53431,7 @@
         <v>6636</v>
       </c>
       <c r="B6636">
-        <v>99.32529185479386</v>
+        <v>99.32529185479385</v>
       </c>
     </row>
     <row r="6637" spans="1:2">
@@ -53463,7 +53463,7 @@
         <v>6640</v>
       </c>
       <c r="B6640">
-        <v>133.7291941542879</v>
+        <v>133.7291941542878</v>
       </c>
     </row>
     <row r="6641" spans="1:2">
@@ -53599,7 +53599,7 @@
         <v>6657</v>
       </c>
       <c r="B6657">
-        <v>78.32059744289658</v>
+        <v>78.32059744289657</v>
       </c>
     </row>
     <row r="6658" spans="1:2">
@@ -54367,7 +54367,7 @@
         <v>6753</v>
       </c>
       <c r="B6753">
-        <v>9.859818260787506</v>
+        <v>9.859818260787504</v>
       </c>
     </row>
     <row r="6754" spans="1:2">
@@ -54407,7 +54407,7 @@
         <v>6758</v>
       </c>
       <c r="B6758">
-        <v>24.66019878422411</v>
+        <v>24.6601987842241</v>
       </c>
     </row>
     <row r="6759" spans="1:2">
@@ -54583,7 +54583,7 @@
         <v>6780</v>
       </c>
       <c r="B6780">
-        <v>19.42492428509717</v>
+        <v>19.42492428509716</v>
       </c>
     </row>
     <row r="6781" spans="1:2">
@@ -54751,7 +54751,7 @@
         <v>6801</v>
       </c>
       <c r="B6801">
-        <v>41.83120163228846</v>
+        <v>41.83120163228845</v>
       </c>
     </row>
     <row r="6802" spans="1:2">
@@ -54759,7 +54759,7 @@
         <v>6802</v>
       </c>
       <c r="B6802">
-        <v>57.02810727103386</v>
+        <v>57.02810727103385</v>
       </c>
     </row>
     <row r="6803" spans="1:2">
@@ -54775,7 +54775,7 @@
         <v>6804</v>
       </c>
       <c r="B6804">
-        <v>65.95153425619451</v>
+        <v>65.95153425619449</v>
       </c>
     </row>
     <row r="6805" spans="1:2">
@@ -54807,7 +54807,7 @@
         <v>6808</v>
       </c>
       <c r="B6808">
-        <v>71.99407293131412</v>
+        <v>71.99407293131411</v>
       </c>
     </row>
     <row r="6809" spans="1:2">
@@ -54823,7 +54823,7 @@
         <v>6810</v>
       </c>
       <c r="B6810">
-        <v>37.88001788905621</v>
+        <v>37.8800178890562</v>
       </c>
     </row>
     <row r="6811" spans="1:2">
@@ -54959,7 +54959,7 @@
         <v>6827</v>
       </c>
       <c r="B6827">
-        <v>76.17004216119963</v>
+        <v>76.17004216119962</v>
       </c>
     </row>
     <row r="6828" spans="1:2">
@@ -54967,7 +54967,7 @@
         <v>6828</v>
       </c>
       <c r="B6828">
-        <v>75.77263783277485</v>
+        <v>75.77263783277483</v>
       </c>
     </row>
     <row r="6829" spans="1:2">
@@ -54975,7 +54975,7 @@
         <v>6829</v>
       </c>
       <c r="B6829">
-        <v>82.37875211524023</v>
+        <v>82.37875211524022</v>
       </c>
     </row>
     <row r="6830" spans="1:2">
@@ -55591,7 +55591,7 @@
         <v>6906</v>
       </c>
       <c r="B6906">
-        <v>42.26201605912064</v>
+        <v>42.26201605912063</v>
       </c>
     </row>
     <row r="6907" spans="1:2">
@@ -56151,7 +56151,7 @@
         <v>6976</v>
       </c>
       <c r="B6976">
-        <v>64.96271257175113</v>
+        <v>64.96271257175111</v>
       </c>
     </row>
     <row r="6977" spans="1:2">
@@ -56351,7 +56351,7 @@
         <v>7001</v>
       </c>
       <c r="B7001">
-        <v>48.07537318200709</v>
+        <v>48.07537318200708</v>
       </c>
     </row>
     <row r="7002" spans="1:2">
@@ -56871,7 +56871,7 @@
         <v>7066</v>
       </c>
       <c r="B7066">
-        <v>92.01375558227062</v>
+        <v>92.0137555822706</v>
       </c>
     </row>
     <row r="7067" spans="1:2">
@@ -57039,7 +57039,7 @@
         <v>7087</v>
       </c>
       <c r="B7087">
-        <v>0.1541747090244193</v>
+        <v>0.1541747090244192</v>
       </c>
     </row>
     <row r="7088" spans="1:2">
@@ -57119,7 +57119,7 @@
         <v>7097</v>
       </c>
       <c r="B7097">
-        <v>90.75061940564022</v>
+        <v>90.75061940564019</v>
       </c>
     </row>
     <row r="7098" spans="1:2">
@@ -57263,7 +57263,7 @@
         <v>7115</v>
       </c>
       <c r="B7115">
-        <v>95.6387512594728</v>
+        <v>95.63875125947278</v>
       </c>
     </row>
     <row r="7116" spans="1:2">
@@ -57407,7 +57407,7 @@
         <v>7133</v>
       </c>
       <c r="B7133">
-        <v>87.54559452683975</v>
+        <v>87.54559452683974</v>
       </c>
     </row>
     <row r="7134" spans="1:2">
@@ -57623,7 +57623,7 @@
         <v>7160</v>
       </c>
       <c r="B7160">
-        <v>3.859980036000847</v>
+        <v>3.859980036000846</v>
       </c>
     </row>
     <row r="7161" spans="1:2">
@@ -57639,7 +57639,7 @@
         <v>7162</v>
       </c>
       <c r="B7162">
-        <v>31.99046229611781</v>
+        <v>31.9904622961178</v>
       </c>
     </row>
     <row r="7163" spans="1:2">
@@ -57687,7 +57687,7 @@
         <v>7168</v>
       </c>
       <c r="B7168">
-        <v>51.71648776633564</v>
+        <v>51.71648776633563</v>
       </c>
     </row>
     <row r="7169" spans="1:2">
@@ -58215,7 +58215,7 @@
         <v>7234</v>
       </c>
       <c r="B7234">
-        <v>2.806017451794211</v>
+        <v>2.80601745179421</v>
       </c>
     </row>
     <row r="7235" spans="1:2">
@@ -58471,7 +58471,7 @@
         <v>7266</v>
       </c>
       <c r="B7266">
-        <v>4.329333304416991</v>
+        <v>4.32933330441699</v>
       </c>
     </row>
     <row r="7267" spans="1:2">
@@ -58647,7 +58647,7 @@
         <v>7288</v>
       </c>
       <c r="B7288">
-        <v>40.86084342328075</v>
+        <v>40.86084342328074</v>
       </c>
     </row>
     <row r="7289" spans="1:2">
@@ -58799,7 +58799,7 @@
         <v>7307</v>
       </c>
       <c r="B7307">
-        <v>5.949371391929176</v>
+        <v>5.949371391929175</v>
       </c>
     </row>
     <row r="7308" spans="1:2">
@@ -58839,7 +58839,7 @@
         <v>7312</v>
       </c>
       <c r="B7312">
-        <v>39.19942370510958</v>
+        <v>39.19942370510957</v>
       </c>
     </row>
     <row r="7313" spans="1:2">
@@ -58855,7 +58855,7 @@
         <v>7314</v>
       </c>
       <c r="B7314">
-        <v>3.722178033622281</v>
+        <v>3.722178033622282</v>
       </c>
     </row>
     <row r="7315" spans="1:2">
@@ -59567,7 +59567,7 @@
         <v>7403</v>
       </c>
       <c r="B7403">
-        <v>0.6704029316482141</v>
+        <v>0.670402931648214</v>
       </c>
     </row>
     <row r="7404" spans="1:2">
@@ -59759,7 +59759,7 @@
         <v>7427</v>
       </c>
       <c r="B7427">
-        <v>0.7285482257186249</v>
+        <v>0.7285482257186248</v>
       </c>
     </row>
     <row r="7428" spans="1:2">
@@ -59783,7 +59783,7 @@
         <v>7430</v>
       </c>
       <c r="B7430">
-        <v>4.142617745685849</v>
+        <v>4.142617745685848</v>
       </c>
     </row>
     <row r="7431" spans="1:2">
@@ -59807,7 +59807,7 @@
         <v>7433</v>
       </c>
       <c r="B7433">
-        <v>9.096778504528828</v>
+        <v>9.096778504528826</v>
       </c>
     </row>
     <row r="7434" spans="1:2">
@@ -59967,7 +59967,7 @@
         <v>7453</v>
       </c>
       <c r="B7453">
-        <v>2.72455835659829</v>
+        <v>2.724558356598289</v>
       </c>
     </row>
     <row r="7454" spans="1:2">
@@ -60007,7 +60007,7 @@
         <v>7458</v>
       </c>
       <c r="B7458">
-        <v>0.6221018937664377</v>
+        <v>0.6221018937664375</v>
       </c>
     </row>
     <row r="7459" spans="1:2">
@@ -60183,7 +60183,7 @@
         <v>7480</v>
       </c>
       <c r="B7480">
-        <v>0.9228367400887773</v>
+        <v>0.922836740088777</v>
       </c>
     </row>
     <row r="7481" spans="1:2">
@@ -63807,7 +63807,7 @@
         <v>7933</v>
       </c>
       <c r="B7933">
-        <v>0.3346754033097099</v>
+        <v>0.3346754033097098</v>
       </c>
     </row>
     <row r="7934" spans="1:2">
@@ -63983,7 +63983,7 @@
         <v>7955</v>
       </c>
       <c r="B7955">
-        <v>0.6263778002205067</v>
+        <v>0.6263778002205066</v>
       </c>
     </row>
     <row r="7956" spans="1:2">
@@ -64967,7 +64967,7 @@
         <v>8078</v>
       </c>
       <c r="B8078">
-        <v>5.512109402246448</v>
+        <v>5.512109402246447</v>
       </c>
     </row>
     <row r="8079" spans="1:2">
@@ -64999,7 +64999,7 @@
         <v>8082</v>
       </c>
       <c r="B8082">
-        <v>1.116624102982819</v>
+        <v>1.116624102982818</v>
       </c>
     </row>
     <row r="8083" spans="1:2">
@@ -65007,7 +65007,7 @@
         <v>8083</v>
       </c>
       <c r="B8083">
-        <v>0.4104489203556007</v>
+        <v>0.4104489203556006</v>
       </c>
     </row>
     <row r="8084" spans="1:2">
@@ -65175,7 +65175,7 @@
         <v>8104</v>
       </c>
       <c r="B8104">
-        <v>42.05276333751644</v>
+        <v>42.05276333751643</v>
       </c>
     </row>
     <row r="8105" spans="1:2">
@@ -65191,7 +65191,7 @@
         <v>8106</v>
       </c>
       <c r="B8106">
-        <v>9.812047681485708</v>
+        <v>9.812047681485703</v>
       </c>
     </row>
     <row r="8107" spans="1:2">
@@ -65519,7 +65519,7 @@
         <v>8147</v>
       </c>
       <c r="B8147">
-        <v>28.10369556718332</v>
+        <v>28.10369556718331</v>
       </c>
     </row>
     <row r="8148" spans="1:2">
@@ -65711,7 +65711,7 @@
         <v>8171</v>
       </c>
       <c r="B8171">
-        <v>62.41914902720931</v>
+        <v>62.4191490272093</v>
       </c>
     </row>
     <row r="8172" spans="1:2">
@@ -65735,7 +65735,7 @@
         <v>8174</v>
       </c>
       <c r="B8174">
-        <v>65.79327589531738</v>
+        <v>65.79327589531736</v>
       </c>
     </row>
     <row r="8175" spans="1:2">
@@ -65751,7 +65751,7 @@
         <v>8176</v>
       </c>
       <c r="B8176">
-        <v>58.44745031127076</v>
+        <v>58.44745031127075</v>
       </c>
     </row>
     <row r="8177" spans="1:2">
@@ -65775,7 +65775,7 @@
         <v>8179</v>
       </c>
       <c r="B8179">
-        <v>13.77111503565796</v>
+        <v>13.77111503565795</v>
       </c>
     </row>
     <row r="8180" spans="1:2">
@@ -68223,7 +68223,7 @@
         <v>8485</v>
       </c>
       <c r="B8485">
-        <v>0.8752742412244274</v>
+        <v>0.8752742412244273</v>
       </c>
     </row>
     <row r="8486" spans="1:2">
@@ -68255,7 +68255,7 @@
         <v>8489</v>
       </c>
       <c r="B8489">
-        <v>0.1947325169937242</v>
+        <v>0.1947325169937241</v>
       </c>
     </row>
     <row r="8490" spans="1:2">
